--- a/spreadsheet/macrofree/aks_checklist.es.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.es.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1150,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Si se requiere para cargas de trabajo de Windows de AKS, se pueden usar contenedores de HostProcess</t>
+          <t>Si es necesario para cargas de trabajo de Windows de AKS, se pueden usar contenedores de HostProcess</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -3713,7 +3678,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Usar Azue NAT Gateway como outboundType para escalar el tráfico de salida</t>
+          <t>Uso de Azure NAT Gateway como outboundType para escalar el tráfico de salida</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -4724,7 +4689,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Desarrollar prácticas gubernamentales propias para asegurarse de que los operadores no realicen cambios en el nodo RG (también conocido como 'infra RG')</t>
+          <t>Desarrollar prácticas de gobierno propias para asegurarse de que los operadores no realicen cambios en el nodo RG (también conocido como 'infra RG')</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -5773,7 +5738,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5819,7 +5784,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5864,7 +5829,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -5910,7 +5875,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -8953,20 +8918,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -8978,123 +9041,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F119" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/aks_checklist.es.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.es.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Usar implementaciones canarias o azules/verdes</t>
+          <t>Uso de implementaciones canary o blue/green</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Si es necesario para cargas de trabajo de Windows de AKS, se pueden usar contenedores de HostProcess</t>
+          <t>Si es necesario para las cargas de trabajo de Windows de AKS, se pueden usar contenedores HostProcess</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Usar KEDA si ejecuta cargas de trabajo controladas por eventos</t>
+          <t>Utilice KEDA si ejecuta cargas de trabajo controladas por eventos</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Usar Dapr para facilitar el desarrollo de microservicios</t>
+          <t>Uso de Dapr para facilitar el desarrollo de microservicios</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Programe y realice pruebas de DR regularmente</t>
+          <t>Programe y realice pruebas de recuperación ante desastres con regularidad</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Usar Azure Traffic Manager o Azure Front Door como equilibrador de carga global para la conmutación por error de región</t>
+          <t>Uso de Azure Traffic Manager o Azure Front Door como equilibrador de carga global para la conmutación por error de región</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Use zonas de disponibilidad si son compatibles en su región de Azure</t>
+          <t>Use las zonas de disponibilidad si se admiten en la región de Azure</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Usar la oferta de AKS respaldada por SLA</t>
+          <t>Uso de la oferta de AKS respaldada por SLA</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Usar presupuestos de interrupción en el pod y las definiciones de implementación</t>
+          <t>Uso de presupuestos de interrupción en el pod y las definiciones de implementación</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza un registro privado, configure la replicación de regiones para almacenar imágenes en varias regiones</t>
+          <t>Si usa un registro privado, configure la replicación de regiones para almacenar imágenes en varias regiones</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Defina requisitos no funcionales como SLAs, RTO (Recovery Time Objective) y RPO (Recovery Point Objective).</t>
+          <t>Defina requisitos no funcionales como SLA, RTO (Recovery Time Objective) y RPO (Recovery Point Objective).</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Usar el modo de reducción vertical para eliminar/eliminar nodos</t>
+          <t>Usar el modo de reducción vertical para eliminar/desasignar nodos</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use la GPU de partioning de varias instancias en clústeres de AKS</t>
+          <t>Cuando sea necesario, use la GPU de partición de varias instancias en clústeres de AKS</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Si ejecuta un clúster de desarrollo y pruebas, utilice NodePool Start/Stop</t>
+          <t>Si se ejecuta un clúster de desarrollo y pruebas, use NodePool Start/Stop</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Policy for Kubernetes para garantizar el cumplimiento del clúster</t>
+          <t>Uso de Azure Policy para Kubernetes para garantizar el cumplimiento de clústeres</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Separar las aplicaciones del plano de control con grupos de nodos de usuario/sistema</t>
+          <t>Separe las aplicaciones del plano de control con grupos de nodos de usuario/sistema</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Agregue mancha a su nodepool del sistema para que sea dedicado</t>
+          <t>Agregue taint a su grupo de nodos del sistema para que sea dedicado</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Usar un registro privado para las imágenes, como ACR</t>
+          <t>Utilice un registro privado para sus imágenes, como ACR</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Security Center para detectar vulnerabilidades de postura de seguridad</t>
+          <t>Uso de Azure Security Center para detectar vulnerabilidades de la posición de seguridad</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Almacene sus secretos en Azure Key Vault con el controlador CSI Secrets Store</t>
+          <t>Almacenamiento de los secretos en Azure Key Vault con el controlador del almacén de secretos de CSI</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Si usa entidades de servicio para el clúster, actualice las credenciales periódicamente (como trimestralmente)</t>
+          <t>Si usa entidades de servicio para el clúster, actualice las credenciales periódicamente (por ejemplo, trimestralmente)</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Si es necesario, agregue el cifrado etcd del Servicio de administración de claves</t>
+          <t>Si es necesario, agregue el servicio de administración de claves, etcd, cifrado</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Usar identidades administradas en lugar de entidades de servicio</t>
+          <t>Uso de identidades administradas en lugar de entidades de servicio</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Integrar la autenticación con AAD (mediante la integración administrada)</t>
+          <t>Integración de la autenticación con AAD (mediante la integración administrada)</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Integrar la autorización con AAD RBAC</t>
+          <t>Integración de la autorización con RBAC de AAD</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Usar espacios de nombres para restringir los privilegios RBAC en Kubernetes</t>
+          <t>Uso de espacios de nombres para restringir el privilegio RBAC en Kubernetes</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Para la administración de acceso de identidad POD, use Azure AD Workload Identity (versión preliminar)</t>
+          <t>Para POD Identity Access Management, use Azure AD Workload Identity (versión preliminar)</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Para inicios de sesión no interactivos de AKS, use kubelogin (vista previa)</t>
+          <t>En el caso de los inicios de sesión no interactivos de AKS, use kubelogin (versión preliminar)</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Deshabilitar cuentas locales de AKS</t>
+          <t>Deshabilitación de cuentas locales de AKS</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Configurar si es necesario Acceso al clúster Just-in-time</t>
+          <t>Configure, si es necesario, el acceso al clúster Just-In-Time</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Configurar, si es necesario, el acceso condicional de AAD para AKS</t>
+          <t>Configure si es necesario el acceso condicional de AAD para AKS</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si es necesario para cargas de trabajo de Windows AKS, configure gMSA </t>
+          <t xml:space="preserve">Si es necesario para las cargas de trabajo de Windows AKS, configure gMSA </t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Para un control más preciso, considere usar una identidad Kubelet administrada</t>
+          <t>Para un control más preciso, considere la posibilidad de utilizar una identidad de Kubelet administrada</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Si usa AGIC, no comparta un AppGW entre clústeres</t>
+          <t>Si utiliza AGIC, no comparta un AppGW entre clústeres</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>No utilice el complemento de enrutamiento de aplicaciones de AKS</t>
+          <t>No use el complemento de enrutamiento de aplicaciones de AKS</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Para cargas de trabajo de Windows, use Redes aceleradas</t>
+          <t>En el caso de las cargas de trabajo de Windows, use las redes aceleradas</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Si usa CNI de Azure, considere la posibilidad de usar diferentes subredes para NodePools</t>
+          <t>Si usa Azure CNI, considere la posibilidad de usar diferentes subredes para NodePools</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Usar extremos privados (preferidos) o extremos de servicio de red virtual para acceder a los servicios PaaS desde el clúster</t>
+          <t>Use puntos de conexión privados (preferidos) o puntos de conexión de servicio de red virtual para acceder a los servicios PaaS desde el clúster</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Si se requiere conectividad híbrida, use 2xER o ER+VPN para una mejor disponibilidad</t>
+          <t>Si se requiere conectividad híbrida, utilice 2xER o ER+VPN para una mejor disponibilidad</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3307,12 +3307,12 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>IPAM (en inglés)</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Elija el mejor complemento de red CNI para sus necesidades (se recomienda Azure CNI)</t>
+          <t>Elija el mejor complemento de red de CNI para sus necesidades (se recomienda Azure CNI)</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3352,12 +3352,12 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>IPAM (en inglés)</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Si usa Azure CNI, ajuste el tamaño de la subred en consecuencia teniendo en cuenta el número máximo de pods por nodo</t>
+          <t>Si usa CNI de Azure, ajuste el tamaño de la subred en consecuencia teniendo en cuenta el número máximo de pods por nodo</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3397,12 +3397,12 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>IPAM (en inglés)</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Si usa Azure CNI, compruebe el número máximo de pods/nodo (predeterminado 30)</t>
+          <t>Si usa Azure CNI, compruebe el número máximo de pods o nodo (valor predeterminado 30)</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3442,17 +3442,17 @@
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>IPAM (en inglés)</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza servicios de equilibrador de carga de IP privada, use una subred dedicada (no la subred AKS)</t>
+          <t>Si usa servicios de LoadBalancer de dirección IP privada, use una subred dedicada (no la subred de AKS)</t>
         </is>
       </c>
       <c r="D60" s="21" t="inlineStr">
         <is>
-          <t>Para las aplicaciones internas, las organizaciones suelen abrir toda la subred de AKS en sus firewalls. Esto abre el acceso de red también a los nodos y, potencialmente, también a los pods (si usa Azure CNI). Si las direcciones IP de LoadBalancer están en una subred diferente, solo esta debe estar disponible para los clientes de la aplicación. Otra razón es que si las direcciones IP de la subred AKS son un recurso escaso, consumir sus direcciones IP para servicios reducirá la escalabilidad máxima del clúster.</t>
+          <t>En el caso de las aplicaciones internas, las organizaciones suelen abrir toda la subred de AKS en sus firewalls. Esto también abre el acceso de red a los nodos y, potencialmente, también a los pods (si se usa Azure CNI). Si las direcciones IP de LoadBalancer están en una subred diferente, solo esta debe estar disponible para los clientes de la aplicación. Otra razón es que si las direcciones IP de la subred de AKS son un recurso escaso, el consumo de sus direcciones IP para los servicios reducirá la escalabilidad máxima del clúster.</t>
         </is>
       </c>
       <c r="E60" s="21" t="inlineStr">
@@ -3491,12 +3491,12 @@
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>IPAM (en inglés)</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Dimensione el intervalo de direcciones IP de servicio en consecuencia (limitará la escalabilidad del clúster)</t>
+          <t>Dimensione el rango de direcciones IP del servicio en consecuencia (limitará la escalabilidad del clúster)</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Si es necesario, configure IP pública por nodo en AKS</t>
+          <t>Si es necesario, configure la dirección IP pública por nodo en AKS</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Usar un controlador de entrada para exponer aplicaciones basadas en web en lugar de exponerlas con servicios de tipo LoadBalancer</t>
+          <t>Use un controlador de entrada para exponer aplicaciones basadas en web en lugar de exponerlas con servicios de tipo LoadBalancer</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Uso de asignaciones dinámicas de direcciones IP para evitar el agotamiento de IP de CNI de Azure</t>
+          <t>Uso de asignaciones dinámicas de direcciones IP para evitar el agotamiento de direcciones IP de Azure CNI</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza un punto de enlace de API público, restrinja las direcciones IP que pueden acceder a él</t>
+          <t>Si utiliza un punto de conexión de API público, restrinja las direcciones IP que pueden acceder a él</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para los nodos AKS de Windows 2019 y 2022, se pueden usar las directivas de red de Calico </t>
+          <t xml:space="preserve">Para los nodos de AKS de Windows 2019 y 2022, se pueden usar directivas de red de Calico </t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Habilitar una opción de directiva de red de Kubernetes (Calico/Azure)</t>
+          <t>Habilitación de una opción de directiva de red de Kubernetes (Calico/Azure)</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Usar políticas de red de Kubernetes para aumentar la seguridad dentro del clúster</t>
+          <t>Uso de directivas de red de Kubernetes para aumentar la seguridad dentro del clúster</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Usar un WAF para cargas de trabajo web (interfaces de usuario o API)</t>
+          <t>Uso de un WAF para cargas de trabajo web (interfaces de usuario o API)</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Usar DDoS Standard en la red virtual de AKS</t>
+          <t>Uso de DDoS Standard en la red virtual de AKS</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Habilitar la rotación automática de certificados de AKS</t>
+          <t>Habilitación de la rotación automática de certificados de AKS</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Tenga un proceso regular para actualizar su versión de kubernetes periódicamente (trimestralmente, por ejemplo) o use la función de actualización automática de AKS</t>
+          <t>Tenga un proceso regular para actualizar la versión de Kubernetes periódicamente (trimestralmente, por ejemplo) o use la característica de actualización automática de AKS</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Utilice kured para actualizaciones de nodos de Linux en caso de que no esté utilizando la actualización de imagen de nodo</t>
+          <t>Utilice kured para las actualizaciones de nodos de Linux en caso de que no esté utilizando la actualización de imagen de nodo</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Tener un proceso regular para actualizar las imágenes del nodo del clúster periódicamente (semanalmente, por ejemplo)</t>
+          <t>Disponer de un proceso regular para actualizar las imágenes de los nodos del clúster periódicamente (semanalmente, por ejemplo)</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Considere gitops para implementar aplicaciones o configuración de clústeres en varios clústeres</t>
+          <t>Considere la posibilidad de implementar aplicaciones o configuraciones de clústeres en varios clústeres</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar la invocación del comando AKS en clústeres privados</t>
+          <t>Considere la posibilidad de usar la invocación de comandos de AKS en clústeres privados</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Para eventos planificados, considere la posibilidad de utilizar Node Auto Drain</t>
+          <t>En el caso de los eventos planeados, considere la posibilidad de utilizar el drenaje automático de nodos</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Desarrollar prácticas de gobierno propias para asegurarse de que los operadores no realicen cambios en el nodo RG (también conocido como 'infra RG')</t>
+          <t>Desarrollar sus propias prácticas de gobernanza para asegurarse de que los operadores no realicen cambios en el nodo RG (también conocido como 'infra RG')</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Usar el nombre RG de nodo personalizado (también conocido como 'Infra RG')</t>
+          <t>Usar el nombre personalizado de Node RG (también conocido como 'Infra RG')</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>No use API de Kubernetes obsoletas en sus manifiestos YAML</t>
+          <t>No use API de Kubernetes obsoletas en los manifiestos de YAML</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Nodos de Windows</t>
+          <t>Nodos de Windows de Taint</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Mantenga el nivel de revisión de los contenedores de Windows sincronizado con el nivel de revisión del host</t>
+          <t>Mantener el nivel de revisión de los contenedores de Windows sincronizado con el nivel de revisión del host</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4919,12 +4919,12 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Enviar registros maestros (también conocidos como registros de API) a Azure Monitor o a su solución de administración de registros preferida</t>
+          <t>Envío de registros maestros (también conocidos como registros de API) a Azure Monitor o a la solución de administración de registros que prefiera</t>
         </is>
       </c>
       <c r="D92" s="21" t="inlineStr">
         <is>
-          <t>Mediante la configuración de diagnóstico en el nivel de clúster</t>
+          <t>A través de la configuración de diagnóstico en el nivel de clúster</t>
         </is>
       </c>
       <c r="E92" s="21" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de agrupar de nodos puntuales para cargas de trabajo que no sean urgentes</t>
+          <t>Considere la posibilidad de crear grupos de nodos de acceso puntual para cargas de trabajo no urgentes</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Considere el nodo virtual AKS para una ráfaga rápida</t>
+          <t>Considere la posibilidad de utilizar el nodo virtual de AKS para una ráfaga rápida</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Supervise las métricas de su clúster con Container Insights (u otras herramientas como Prometheus)</t>
+          <t>Supervise las métricas de clúster con Container Insights (u otras herramientas como Prometheus)</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Almacene y analice sus registros de clúster con Container Insights (u otras herramientas como Telegraf/ElasticSearch)</t>
+          <t>Almacene y analice los registros del clúster con Container Insights (u otras herramientas como Telegraf/ElasticSearch)</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Supervisar la utilización de CPU y memoria de los nodos</t>
+          <t>Supervisar el uso de la CPU y la memoria de los nodos</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Si usa CNI de Azure, supervise el % de direcciones IP de pod consumidas por nodo</t>
+          <t>Si usa Azure CNI, supervise el porcentaje de direcciones IP de pod consumidas por nodo</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5245,12 +5245,12 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Supervisar la profundidad de la cola de disco del sistema operativo en los nodos</t>
+          <t>Supervisión de la profundidad de la cola de disco del sistema operativo en los nodos</t>
         </is>
       </c>
       <c r="D99" s="21" t="inlineStr">
         <is>
-          <t>La E/S en el disco del sistema operativo es un recurso crítico. Si el sistema operativo en los nodos se limita en E/S, esto podría conducir a un comportamiento impredecible, que normalmente termina en un nodo que se declara NotReady</t>
+          <t>La E/S en el disco del sistema operativo es un recurso crítico. Si el sistema operativo de los nodos se limita en la E/S, esto podría dar lugar a un comportamiento impredecible, que normalmente terminaría en que el nodo se declarara NotReady</t>
         </is>
       </c>
       <c r="E99" s="21" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Si no utiliza el filtrado de salida con AzFW/NVA, supervise los puertos SNAT asignados ALB estándar</t>
+          <t>Si no usa el filtrado de salida con AzFW/NVA, supervise los puertos SNAT asignados por ALB estándar</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Suscribirse a las notificaciones de estado de recursos para el clúster de AKS</t>
+          <t>Suscríbase a las notificaciones de estado de los recursos para el clúster de AKS</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Configurar solicitudes y límites en las especificaciones de tu pod</t>
+          <t>Configurar solicitudes y límites en las especificaciones del pod</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Aplicar cuotas de recursos para espacios de nombres</t>
+          <t>Aplicación de cuotas de recursos para espacios de nombres</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que su suscripción tenga suficiente cuota para escalar horizontalmente sus grupos de nodos</t>
+          <t>Asegúrese de que la suscripción tiene suficiente cuota para escalar horizontalmente los grupos de nodos</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Usar el escalador automático de clúster</t>
+          <t>Uso del escalador automático de clústeres</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Personalizar la configuración de nodos para grupos de nodos AKS</t>
+          <t>Personalización de la configuración de nodos para grupos de nodos de AKS</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Utilice el escalador automático de pod horizontal cuando sea necesario</t>
+          <t>Usar el escalador automático horizontal de pods cuando sea necesario</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5663,12 +5663,12 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Considere un tamaño de nodo apropiado, ni demasiado grande ni demasiado pequeño</t>
+          <t>Considere un tamaño de nodo adecuado, ni demasiado grande ni demasiado pequeño</t>
         </is>
       </c>
       <c r="D108" s="21" t="inlineStr">
         <is>
-          <t>Los nodos más grandes traerán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado.</t>
+          <t>Los nodos más grandes aportarán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado</t>
         </is>
       </c>
       <c r="E108" s="21" t="inlineStr">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Si es necesario para la escalabilidad, considere agregar más de 5000 nodos</t>
+          <t>Si se requieren más de 5000 nodos para la escalabilidad, considere la posibilidad de usar un clúster de AKS adicional</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de suscribirse a EventGrid Events para la automatización de AKS</t>
+          <t>Considere la posibilidad de suscribirse a eventos de EventGrid para la automatización de AKS</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Si es necesario, considere la posibilidad de usar Azure Dedicated Hosts para nodos AKS</t>
+          <t>Si es necesario, considere la posibilidad de usar Azure Dedicated Hosts para nodos de AKS</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Usar discos de SO efímeros</t>
+          <t>Usar discos de sistema operativo efímeros</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Para discos no efímeros, use IOPS altas y discos de sistema operativo más grandes para los nodos cuando ejecute muchos pods / nodo, ya que requiere un alto rendimiento para ejecutar varios pods y generará registros enormes con umbrales de rotación de registros de AKS predeterminados</t>
+          <t>En el caso de los discos no efímeros, use IOPS altas y discos de sistema operativo más grandes para los nodos cuando ejecute muchos pods o nodos, ya que requiere un alto rendimiento para ejecutar varios pods y generará registros enormes con umbrales de rotación de registros de AKS predeterminados</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Para la opción de almacenamiento de hiperrendimiento, use Ultra Disks en AKS</t>
+          <t>Para la opción de almacenamiento de hiperrendimiento, use discos Ultra en AKS</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Evite mantener el estado en el clúster y almacene datos fuera (AzStorage, AzSQL, Cosmos, etc.)</t>
+          <t>Evite mantener el estado en el clúster y almacene los datos fuera (AzStorage, AzSQL, Cosmos, etc.)</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza AzFiles Standard, considere AzFiles Premium y/o ANF por razones de rendimiento</t>
+          <t>Si usa AzFiles Standard, considere AzFiles Premium o ANF por motivos de rendimiento</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Si usa discos y zonas de disponibilidad de Azure, considere la posibilidad de tener grupos de nodos dentro de una zona para el disco LRS con VolumeBindingMode:WaitForFirstConsumer para aprovisionar almacenamiento en la zona correcta o use el disco ZRS para grupos de nodos que abarcan varias zonas</t>
+          <t>Si usa Azure Disks y AZ, considere la posibilidad de tener grupos de nodos dentro de una zona para el disco LRS con VolumeBindingMode:WaitForFirstConsumer para aprovisionar el almacenamiento en la zona correcta o use el disco ZRS para los grupos de nodos que abarquen varias zonas</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -9202,7 +9202,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta comprobación se ha comprobado y no hay más elementos de acción asociados a ella</t>
+          <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">

--- a/spreadsheet/macrofree/aks_checklist.es.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.es.xlsx
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Si es necesario, escale las instantáneas de NodePool</t>
+          <t>Usar el modo de reducción vertical para eliminar/desasignar nodos</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
+          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1692,7 +1692,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1713,13 +1713,13 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Usar el modo de reducción vertical para eliminar/desasignar nodos</t>
+          <t>Cuando sea necesario, use la GPU de partición de varias instancias en clústeres de AKS</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1730,7 +1730,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
+          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1738,7 +1738,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1759,13 +1759,13 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use la GPU de partición de varias instancias en clústeres de AKS</t>
+          <t>Si se ejecuta un clúster de desarrollo y pruebas, use NodePool Start/Stop</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1776,7 +1776,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
+          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1795,23 +1795,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza de costos</t>
+          <t>Gobernanza y seguridad</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Si se ejecuta un clúster de desarrollo y pruebas, use NodePool Start/Stop</t>
+          <t>Uso de Azure Policy para Kubernetes para garantizar el cumplimiento de clústeres</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1822,7 +1822,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1830,7 +1830,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Policy para Kubernetes para garantizar el cumplimiento de clústeres</t>
+          <t>Separe las aplicaciones del plano de control con grupos de nodos de usuario/sistema</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1868,7 +1868,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
+          <t>https://learn.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1876,7 +1876,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1897,13 +1897,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Separe las aplicaciones del plano de control con grupos de nodos de usuario/sistema</t>
+          <t>Agregue taint a su grupo de nodos del sistema para que sea dedicado</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1922,7 +1922,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1943,13 +1943,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Agregue taint a su grupo de nodos del sistema para que sea dedicado</t>
+          <t>Utilice un registro privado para sus imágenes, como ACR</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1960,14 +1960,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://learn.microsoft.com/azure/container-registry/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Utilice un registro privado para sus imágenes, como ACR</t>
+          <t>Escanea tus imágenes en busca de vulnerabilidades</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2005,14 +2005,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/</t>
+          <t>https://learn.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Escanea tus imágenes en busca de vulnerabilidades</t>
+          <t>Uso de Azure Security Center para detectar vulnerabilidades de la posición de seguridad</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2057,7 +2057,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2078,13 +2078,13 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Security Center para detectar vulnerabilidades de la posición de seguridad</t>
+          <t>Si es necesario, configure FIPS</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2095,14 +2095,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/container-security</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>42d4aefe-2383-470e-b019-c30df24996b2</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2123,13 +2123,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Si es necesario, configure FIPS</t>
+          <t>Definir los requisitos de separación de aplicaciones (espacio de nombres/grupo de nodos/clúster)</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2140,14 +2140,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>42d4aefe-2383-470e-b019-c30df24996b2</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2163,18 +2163,18 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Definir los requisitos de separación de aplicaciones (espacio de nombres/grupo de nodos/clúster)</t>
+          <t>Almacenamiento de los secretos en Azure Key Vault con el controlador del almacén de secretos de CSI</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2185,7 +2185,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
+          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2193,7 +2193,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2214,13 +2214,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento de los secretos en Azure Key Vault con el controlador del almacén de secretos de CSI</t>
+          <t>Si usa entidades de servicio para el clúster, actualice las credenciales periódicamente (por ejemplo, trimestralmente)</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2231,7 +2231,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
+          <t>https://learn.microsoft.com/azure/aks/update-credentials</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2239,7 +2239,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2260,13 +2260,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Si usa entidades de servicio para el clúster, actualice las credenciales periódicamente (por ejemplo, trimestralmente)</t>
+          <t>Si es necesario, agregue el servicio de administración de claves, etcd, cifrado</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2277,7 +2277,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/update-credentials</t>
+          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2285,7 +2285,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2306,13 +2306,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Si es necesario, agregue el servicio de administración de claves, etcd, cifrado</t>
+          <t>Si es necesario, considere la posibilidad de usar Proceso confidencial para AKS</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2323,7 +2323,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
+          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2331,7 +2331,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2352,13 +2352,13 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Si es necesario, considere la posibilidad de usar Proceso confidencial para AKS</t>
+          <t>Considere la posibilidad de usar Defender para contenedores</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2369,7 +2369,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2377,7 +2377,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2388,23 +2388,23 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Defender para contenedores</t>
+          <t>Uso de identidades administradas en lugar de entidades de servicio</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2415,7 +2415,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2423,7 +2423,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2444,13 +2444,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Uso de identidades administradas en lugar de entidades de servicio</t>
+          <t>Integración de la autenticación con AAD (mediante la integración administrada)</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2461,7 +2461,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-managed-identity</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2469,7 +2469,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Integración de la autenticación con AAD (mediante la integración administrada)</t>
+          <t>Limitar el acceso a admin kubeconfig (get-credentials --admin)</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2507,7 +2507,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad</t>
+          <t>https://learn.microsoft.com/azure/aks/control-kubeconfig-access</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2515,7 +2515,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Limitar el acceso a admin kubeconfig (get-credentials --admin)</t>
+          <t>Integración de la autorización con RBAC de AAD</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2553,7 +2553,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/control-kubeconfig-access</t>
+          <t>https://learn.microsoft.com/azure/aks/manage-azure-rbac</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2561,7 +2561,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2582,13 +2582,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Integración de la autorización con RBAC de AAD</t>
+          <t>Uso de espacios de nombres para restringir el privilegio RBAC en Kubernetes</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2599,7 +2599,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/manage-azure-rbac</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-identity</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2607,7 +2607,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2628,13 +2628,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Uso de espacios de nombres para restringir el privilegio RBAC en Kubernetes</t>
+          <t>Para POD Identity Access Management, use Azure AD Workload Identity (versión preliminar)</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2645,7 +2645,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-identity</t>
+          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2653,7 +2653,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Para POD Identity Access Management, use Azure AD Workload Identity (versión preliminar)</t>
+          <t>En el caso de los inicios de sesión no interactivos de AKS, use kubelogin (versión preliminar)</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2691,7 +2691,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2699,7 +2699,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>En el caso de los inicios de sesión no interactivos de AKS, use kubelogin (versión preliminar)</t>
+          <t>Deshabilitación de cuentas locales de AKS</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2737,7 +2737,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2745,7 +2745,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2766,13 +2766,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Deshabilitación de cuentas locales de AKS</t>
+          <t>Configure, si es necesario, el acceso al clúster Just-In-Time</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2783,14 +2783,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Configure, si es necesario, el acceso al clúster Just-In-Time</t>
+          <t>Configure si es necesario el acceso condicional de AAD para AKS</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2828,7 +2828,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2836,7 +2836,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Configure si es necesario el acceso condicional de AAD para AKS</t>
+          <t xml:space="preserve">Si es necesario para las cargas de trabajo de Windows AKS, configure gMSA </t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2874,7 +2874,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -2882,7 +2882,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2903,13 +2903,13 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si es necesario para las cargas de trabajo de Windows AKS, configure gMSA </t>
+          <t>Para un control más preciso, considere la posibilidad de utilizar una identidad de Kubelet administrada</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2920,14 +2920,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2938,17 +2938,17 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Prácticas recomendadas</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Para un control más preciso, considere la posibilidad de utilizar una identidad de Kubelet administrada</t>
+          <t>Si utiliza AGIC, no comparta un AppGW entre clústeres</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2965,14 +2965,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
+          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2993,13 +2993,13 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza AGIC, no comparta un AppGW entre clústeres</t>
+          <t>No use el complemento de enrutamiento de aplicaciones de AKS</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3010,7 +3010,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
+          <t>https://learn.microsoft.com/azure/aks/http-application-routing</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -3018,7 +3018,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3039,13 +3039,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>No use el complemento de enrutamiento de aplicaciones de AKS</t>
+          <t>En el caso de las cargas de trabajo de Windows, use las redes aceleradas</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3056,7 +3056,7 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/http-application-routing</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="I51" s="15" t="n"/>
@@ -3064,7 +3064,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3085,13 +3085,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las cargas de trabajo de Windows, use las redes aceleradas</t>
+          <t>Utilice el ALB estándar (en lugar del básico)</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3102,7 +3102,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3110,7 +3110,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3131,13 +3131,13 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Utilice el ALB estándar (en lugar del básico)</t>
+          <t>Si usa Azure CNI, considere la posibilidad de usar diferentes subredes para NodePools</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3148,14 +3148,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3171,12 +3171,12 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>Prácticas recomendadas</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Si usa Azure CNI, considere la posibilidad de usar diferentes subredes para NodePools</t>
+          <t>Use puntos de conexión privados (preferidos) o puntos de conexión de servicio de red virtual para acceder a los servicios PaaS desde el clúster</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3193,7 +3193,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
+          <t>https://learn.microsoft.com/azure/private-link/private-link-overview</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3201,7 +3201,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3217,12 +3217,12 @@
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>JA</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Use puntos de conexión privados (preferidos) o puntos de conexión de servicio de red virtual para acceder a los servicios PaaS desde el clúster</t>
+          <t>Si se requiere conectividad híbrida, utilice 2xER o ER+VPN para una mejor disponibilidad</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3239,14 +3239,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/private-link/private-link-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3262,18 +3262,18 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>JA</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Si se requiere conectividad híbrida, utilice 2xER o ER+VPN para una mejor disponibilidad</t>
+          <t>Elija el mejor complemento de red de CNI para sus necesidades (se recomienda Azure CNI)</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3284,14 +3284,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Elija el mejor complemento de red de CNI para sus necesidades (se recomienda Azure CNI)</t>
+          <t>Si usa CNI de Azure, ajuste el tamaño de la subred en consecuencia teniendo en cuenta el número máximo de pods por nodo</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3329,14 +3329,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Si usa CNI de Azure, ajuste el tamaño de la subred en consecuencia teniendo en cuenta el número máximo de pods por nodo</t>
+          <t>Si usa Azure CNI, compruebe el número máximo de pods o nodo (valor predeterminado 30)</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3381,7 +3381,7 @@
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3402,13 +3402,17 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Si usa Azure CNI, compruebe el número máximo de pods o nodo (valor predeterminado 30)</t>
-        </is>
-      </c>
-      <c r="D59" s="21" t="n"/>
+          <t>Si usa servicios de LoadBalancer de dirección IP privada, use una subred dedicada (no la subred de AKS)</t>
+        </is>
+      </c>
+      <c r="D59" s="21" t="inlineStr">
+        <is>
+          <t>En el caso de las aplicaciones internas, las organizaciones suelen abrir toda la subred de AKS en sus firewalls. Esto también abre el acceso de red a los nodos y, potencialmente, también a los pods (si se usa Azure CNI). Si las direcciones IP de LoadBalancer están en una subred diferente, solo esta debe estar disponible para los clientes de la aplicación. Otra razón es que si las direcciones IP de la subred de AKS son un recurso escaso, el consumo de sus direcciones IP para los servicios reducirá la escalabilidad máxima del clúster.</t>
+        </is>
+      </c>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3419,14 +3423,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/internal-lb</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3447,17 +3451,13 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Si usa servicios de LoadBalancer de dirección IP privada, use una subred dedicada (no la subred de AKS)</t>
-        </is>
-      </c>
-      <c r="D60" s="21" t="inlineStr">
-        <is>
-          <t>En el caso de las aplicaciones internas, las organizaciones suelen abrir toda la subred de AKS en sus firewalls. Esto también abre el acceso de red a los nodos y, potencialmente, también a los pods (si se usa Azure CNI). Si las direcciones IP de LoadBalancer están en una subred diferente, solo esta debe estar disponible para los clientes de la aplicación. Otra razón es que si las direcciones IP de la subred de AKS son un recurso escaso, el consumo de sus direcciones IP para los servicios reducirá la escalabilidad máxima del clúster.</t>
-        </is>
-      </c>
+          <t>Dimensione el rango de direcciones IP del servicio en consecuencia (limitará la escalabilidad del clúster)</t>
+        </is>
+      </c>
+      <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3468,14 +3468,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/internal-lb</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3491,18 +3491,18 @@
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Dimensione el rango de direcciones IP del servicio en consecuencia (limitará la escalabilidad del clúster)</t>
+          <t>Si es necesario, agregue su propio complemento CNI</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3513,14 +3513,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Si es necesario, agregue su propio complemento CNI</t>
+          <t>Si es necesario, configure la dirección IP pública por nodo en AKS</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3558,14 +3558,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3581,18 +3581,18 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Si es necesario, configure la dirección IP pública por nodo en AKS</t>
+          <t>Use un controlador de entrada para exponer aplicaciones basadas en web en lugar de exponerlas con servicios de tipo LoadBalancer</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3603,7 +3603,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-network</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3611,7 +3611,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3632,13 +3632,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Use un controlador de entrada para exponer aplicaciones basadas en web en lugar de exponerlas con servicios de tipo LoadBalancer</t>
+          <t>Uso de Azure NAT Gateway como outboundType para escalar el tráfico de salida</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3649,7 +3649,7 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-network</t>
+          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
         </is>
       </c>
       <c r="I64" s="15" t="n"/>
@@ -3657,7 +3657,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3678,13 +3678,13 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure NAT Gateway como outboundType para escalar el tráfico de salida</t>
+          <t>Uso de asignaciones dinámicas de direcciones IP para evitar el agotamiento de direcciones IP de Azure CNI</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3695,7 +3695,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3703,7 +3703,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3719,18 +3719,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Uso de asignaciones dinámicas de direcciones IP para evitar el agotamiento de direcciones IP de Azure CNI</t>
+          <t>Filtre el tráfico de salida con AzFW/NVA si sus requisitos de seguridad lo exigen</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3741,14 +3741,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
+          <t>https://learn.microsoft.com/azure/aks/limit-egress-traffic</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3769,13 +3769,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Filtre el tráfico de salida con AzFW/NVA si sus requisitos de seguridad lo exigen</t>
+          <t>Si utiliza un punto de conexión de API público, restrinja las direcciones IP que pueden acceder a él</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3786,7 +3786,7 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/limit-egress-traffic</t>
+          <t>https://learn.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
         </is>
       </c>
       <c r="I67" s="15" t="n"/>
@@ -3794,7 +3794,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3815,13 +3815,13 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Si utiliza un punto de conexión de API público, restrinja las direcciones IP que pueden acceder a él</t>
+          <t>Utilice clústeres privados si sus requisitos lo exigen</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3832,7 +3832,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
+          <t>https://learn.microsoft.com/azure/aks/private-clusters</t>
         </is>
       </c>
       <c r="I68" s="15" t="n"/>
@@ -3840,7 +3840,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3861,13 +3861,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Utilice clústeres privados si sus requisitos lo exigen</t>
+          <t xml:space="preserve">Para los nodos de AKS de Windows 2019 y 2022, se pueden usar directivas de red de Calico </t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3878,7 +3878,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/private-clusters</t>
+          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -3886,7 +3886,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3907,13 +3907,13 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para los nodos de AKS de Windows 2019 y 2022, se pueden usar directivas de red de Calico </t>
+          <t>Habilitación de una opción de directiva de red de Kubernetes (Calico/Azure)</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3932,7 +3932,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Habilitación de una opción de directiva de red de Kubernetes (Calico/Azure)</t>
+          <t>Uso de directivas de red de Kubernetes para aumentar la seguridad dentro del clúster</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3970,7 +3970,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -3978,7 +3978,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Uso de directivas de red de Kubernetes para aumentar la seguridad dentro del clúster</t>
+          <t>Uso de un WAF para cargas de trabajo web (interfaces de usuario o API)</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4024,7 +4024,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4045,13 +4045,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Uso de un WAF para cargas de trabajo web (interfaces de usuario o API)</t>
+          <t>Uso de DDoS Standard en la red virtual de AKS</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4062,7 +4062,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4070,7 +4070,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4091,13 +4091,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Uso de DDoS Standard en la red virtual de AKS</t>
+          <t>Si es necesario, agregue el proxy HTTP de la empresa</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4108,7 +4108,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4116,7 +4116,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4137,13 +4137,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Si es necesario, agregue el proxy HTTP de la empresa</t>
+          <t>Considere la posibilidad de usar una malla de servicios para la administración avanzada de comunicaciones de microservicios</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4154,7 +4154,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
+          <t>https://learn.microsoft.com/azure/aks/servicemesh-about</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4162,7 +4162,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4173,23 +4173,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Alertas</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar una malla de servicios para la administración avanzada de comunicaciones de microservicios</t>
+          <t>Configurar alertas sobre las métricas más críticas (consulte Container Insights para obtener recomendaciones)</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4200,7 +4200,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/servicemesh-about</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4208,7 +4208,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4224,18 +4224,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Alertas</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Configurar alertas sobre las métricas más críticas (consulte Container Insights para obtener recomendaciones)</t>
+          <t>Consulte periódicamente Azure Advisor para obtener recomendaciones sobre el clúster</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4246,7 +4246,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-get-started</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4254,7 +4254,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Consulte periódicamente Azure Advisor para obtener recomendaciones sobre el clúster</t>
+          <t>Habilitación de la rotación automática de certificados de AKS</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4292,7 +4292,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-get-started</t>
+          <t>https://learn.microsoft.com/azure/aks/certificate-rotation</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4300,7 +4300,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4321,13 +4321,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Desarrolle sus manifiestos YAML con editores de texto inteligentes como vscode+kubeadvisor</t>
+          <t>Tenga un proceso regular para actualizar la versión de Kubernetes periódicamente (trimestralmente, por ejemplo) o use la característica de actualización automática de AKS</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4338,7 +4338,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/supported-kubernetes-versions</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4346,7 +4346,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4367,13 +4367,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Habilitación de la rotación automática de certificados de AKS</t>
+          <t>Utilice kured para las actualizaciones de nodos de Linux en caso de que no esté utilizando la actualización de imagen de nodo</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4384,7 +4384,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/certificate-rotation</t>
+          <t>https://learn.microsoft.com/azure/aks/node-updates-kured</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4392,7 +4392,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Tenga un proceso regular para actualizar la versión de Kubernetes periódicamente (trimestralmente, por ejemplo) o use la característica de actualización automática de AKS</t>
+          <t>Disponer de un proceso regular para actualizar las imágenes de los nodos del clúster periódicamente (semanalmente, por ejemplo)</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4430,7 +4430,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/supported-kubernetes-versions</t>
+          <t>https://learn.microsoft.com/azure/aks/node-image-upgrade</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4438,7 +4438,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4459,13 +4459,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Utilice kured para las actualizaciones de nodos de Linux en caso de que no esté utilizando la actualización de imagen de nodo</t>
+          <t>Considere la posibilidad de implementar aplicaciones o configuraciones de clústeres en varios clústeres</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4476,7 +4476,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-updates-kured</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4484,7 +4484,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4505,13 +4505,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Disponer de un proceso regular para actualizar las imágenes de los nodos del clúster periódicamente (semanalmente, por ejemplo)</t>
+          <t>Considere la posibilidad de usar la invocación de comandos de AKS en clústeres privados</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4522,7 +4522,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-image-upgrade</t>
+          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
         </is>
       </c>
       <c r="I83" s="15" t="n"/>
@@ -4530,7 +4530,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de implementar aplicaciones o configuraciones de clústeres en varios clústeres</t>
+          <t>En el caso de los eventos planeados, considere la posibilidad de utilizar el drenaje automático de nodos</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4568,7 +4568,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
         </is>
       </c>
       <c r="I84" s="15" t="n"/>
@@ -4576,7 +4576,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4597,13 +4597,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar la invocación de comandos de AKS en clústeres privados</t>
+          <t>Desarrollar sus propias prácticas de gobernanza para asegurarse de que los operadores no realicen cambios en el nodo RG (también conocido como 'infra RG')</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4614,7 +4614,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
+          <t>https://learn.microsoft.com/azure/aks/faq</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4622,7 +4622,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>En el caso de los eventos planeados, considere la posibilidad de utilizar el drenaje automático de nodos</t>
+          <t>Usar el nombre personalizado de Node RG (también conocido como 'Infra RG')</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4660,7 +4660,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
+          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -4668,7 +4668,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4689,13 +4689,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Desarrollar sus propias prácticas de gobernanza para asegurarse de que los operadores no realicen cambios en el nodo RG (también conocido como 'infra RG')</t>
+          <t>No use API de Kubernetes obsoletas en los manifiestos de YAML</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4706,7 +4706,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/faq</t>
+          <t>https://kubernetes.io/docs/setup/release/notes/</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -4714,7 +4714,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Usar el nombre personalizado de Node RG (también conocido como 'Infra RG')</t>
+          <t>Nodos de Windows de Taint</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4752,7 +4752,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://learn.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4760,7 +4760,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4781,13 +4781,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>No use API de Kubernetes obsoletas en los manifiestos de YAML</t>
+          <t>Mantener el nivel de revisión de los contenedores de Windows sincronizado con el nivel de revisión del host</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4798,7 +4798,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+          <t>https://learn.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
         </is>
       </c>
       <c r="I89" s="15" t="n"/>
@@ -4806,7 +4806,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4827,10 +4827,14 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Nodos de Windows de Taint</t>
-        </is>
-      </c>
-      <c r="D90" s="21" t="n"/>
+          <t>Envío de registros maestros (también conocidos como registros de API) a Azure Monitor o a la solución de administración de registros que prefiera</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="inlineStr">
+        <is>
+          <t>A través de la configuración de diagnóstico en el nivel de clúster</t>
+        </is>
+      </c>
       <c r="E90" s="21" t="inlineStr">
         <is>
           <t>Bajo</t>
@@ -4844,7 +4848,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+          <t>https://learn.microsoft.com/azure/aks/monitor-aks</t>
         </is>
       </c>
       <c r="I90" s="15" t="n"/>
@@ -4852,7 +4856,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4873,7 +4877,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Mantener el nivel de revisión de los contenedores de Windows sincronizado con el nivel de revisión del host</t>
+          <t>Si es necesario, utilice instantáneas de nodePool</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4890,7 +4894,7 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
         </is>
       </c>
       <c r="I91" s="15" t="n"/>
@@ -4898,7 +4902,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -4914,19 +4918,15 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Costar</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Envío de registros maestros (también conocidos como registros de API) a Azure Monitor o a la solución de administración de registros que prefiera</t>
-        </is>
-      </c>
-      <c r="D92" s="21" t="inlineStr">
-        <is>
-          <t>A través de la configuración de diagnóstico en el nivel de clúster</t>
-        </is>
-      </c>
+          <t>Considere la posibilidad de crear grupos de nodos de acceso puntual para cargas de trabajo no urgentes</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
           <t>Bajo</t>
@@ -4940,7 +4940,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/monitor-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/spot-node-pool</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -4948,7 +4948,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de crear grupos de nodos de acceso puntual para cargas de trabajo no urgentes</t>
+          <t>Considere la posibilidad de utilizar el nodo virtual de AKS para una ráfaga rápida</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -4986,7 +4986,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/spot-node-pool</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -4994,7 +4994,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5010,18 +5010,18 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Costar</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de utilizar el nodo virtual de AKS para una ráfaga rápida</t>
+          <t>Supervise las métricas de clúster con Container Insights (u otras herramientas como Prometheus)</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5032,7 +5032,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="n"/>
@@ -5040,7 +5040,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Supervise las métricas de clúster con Container Insights (u otras herramientas como Prometheus)</t>
+          <t>Almacene y analice los registros del clúster con Container Insights (u otras herramientas como Telegraf/ElasticSearch)</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5086,7 +5086,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5107,13 +5107,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Almacene y analice los registros del clúster con Container Insights (u otras herramientas como Telegraf/ElasticSearch)</t>
+          <t>Supervisar el uso de la CPU y la memoria de los nodos</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5124,7 +5124,7 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
         </is>
       </c>
       <c r="I96" s="15" t="n"/>
@@ -5132,7 +5132,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Supervisar el uso de la CPU y la memoria de los nodos</t>
+          <t>Si usa Azure CNI, supervise el porcentaje de direcciones IP de pod consumidas por nodo</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5170,7 +5170,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="I97" s="15" t="n"/>
@@ -5178,7 +5178,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5199,10 +5199,14 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Si usa Azure CNI, supervise el porcentaje de direcciones IP de pod consumidas por nodo</t>
-        </is>
-      </c>
-      <c r="D98" s="21" t="n"/>
+          <t>Supervisión de la profundidad de la cola de disco del sistema operativo en los nodos</t>
+        </is>
+      </c>
+      <c r="D98" s="21" t="inlineStr">
+        <is>
+          <t>La E/S en el disco del sistema operativo es un recurso crítico. Si el sistema operativo de los nodos se limita en la E/S, esto podría dar lugar a un comportamiento impredecible, que normalmente terminaría en que el nodo se declarara NotReady</t>
+        </is>
+      </c>
       <c r="E98" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5216,7 +5220,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5224,7 +5228,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5245,14 +5249,10 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Supervisión de la profundidad de la cola de disco del sistema operativo en los nodos</t>
-        </is>
-      </c>
-      <c r="D99" s="21" t="inlineStr">
-        <is>
-          <t>La E/S en el disco del sistema operativo es un recurso crítico. Si el sistema operativo de los nodos se limita en la E/S, esto podría dar lugar a un comportamiento impredecible, que normalmente terminaría en que el nodo se declarara NotReady</t>
-        </is>
-      </c>
+          <t>Si no usa el filtrado de salida con AzFW/NVA, supervise los puertos SNAT asignados por ALB estándar</t>
+        </is>
+      </c>
+      <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5266,7 +5266,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
+          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="I99" s="15" t="n"/>
@@ -5274,7 +5274,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Si no usa el filtrado de salida con AzFW/NVA, supervise los puertos SNAT asignados por ALB estándar</t>
+          <t>Suscríbase a las notificaciones de estado de los recursos para el clúster de AKS</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5312,7 +5312,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/aks-resource-health</t>
         </is>
       </c>
       <c r="I100" s="15" t="n"/>
@@ -5320,7 +5320,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5336,18 +5336,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Recursos</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Suscríbase a las notificaciones de estado de los recursos para el clúster de AKS</t>
+          <t>Configurar solicitudes y límites en las especificaciones del pod</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5358,7 +5358,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/aks-resource-health</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I101" s="15" t="n"/>
@@ -5366,7 +5366,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5387,13 +5387,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Configurar solicitudes y límites en las especificaciones del pod</t>
+          <t>Aplicación de cuotas de recursos para espacios de nombres</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5412,7 +5412,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5433,13 +5433,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de cuotas de recursos para espacios de nombres</t>
+          <t>Asegúrese de que la suscripción tiene suficiente cuota para escalar horizontalmente los grupos de nodos</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5450,7 +5450,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I103" s="15" t="n"/>
@@ -5458,7 +5458,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5474,18 +5474,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Recursos</t>
+          <t>Escalabilidad</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la suscripción tiene suficiente cuota para escalar horizontalmente los grupos de nodos</t>
+          <t>Uso del escalador automático de clústeres</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5496,7 +5496,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I104" s="15" t="n"/>
@@ -5504,7 +5504,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5525,13 +5525,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Uso del escalador automático de clústeres</t>
+          <t>Personalización de la configuración de nodos para grupos de nodos de AKS</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5542,7 +5542,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
         </is>
       </c>
       <c r="I105" s="15" t="n"/>
@@ -5550,7 +5550,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5571,13 +5571,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Personalización de la configuración de nodos para grupos de nodos de AKS</t>
+          <t>Usar el escalador automático horizontal de pods cuando sea necesario</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5588,7 +5588,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I106" s="15" t="n"/>
@@ -5596,7 +5596,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5617,13 +5617,17 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Usar el escalador automático horizontal de pods cuando sea necesario</t>
-        </is>
-      </c>
-      <c r="D107" s="21" t="n"/>
+          <t>Considere un tamaño de nodo adecuado, ni demasiado grande ni demasiado pequeño</t>
+        </is>
+      </c>
+      <c r="D107" s="21" t="inlineStr">
+        <is>
+          <t>Los nodos más grandes aportarán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado</t>
+        </is>
+      </c>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5634,7 +5638,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -5642,7 +5646,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5663,17 +5667,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Considere un tamaño de nodo adecuado, ni demasiado grande ni demasiado pequeño</t>
-        </is>
-      </c>
-      <c r="D108" s="21" t="inlineStr">
-        <is>
-          <t>Los nodos más grandes aportarán un mayor rendimiento y características como discos efímeros y redes aceleradas, pero aumentarán el radio de explosión y disminuirán la granularidad de escalado</t>
-        </is>
-      </c>
+          <t>Si se requieren más de 5000 nodos para la escalabilidad, considere la posibilidad de usar un clúster de AKS adicional</t>
+        </is>
+      </c>
+      <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5684,7 +5684,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
         </is>
       </c>
       <c r="I108" s="15" t="n"/>
@@ -5692,7 +5692,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Si se requieren más de 5000 nodos para la escalabilidad, considere la posibilidad de usar un clúster de AKS adicional</t>
+          <t>Considere la posibilidad de suscribirse a eventos de EventGrid para la automatización de AKS</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5730,7 +5730,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
+          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5738,7 +5738,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de suscribirse a eventos de EventGrid para la automatización de AKS</t>
+          <t>Para una operación de ejecución prolongada en un clúster de AKS, considere la finalización de eventos</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -5776,7 +5776,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
         </is>
       </c>
       <c r="I110" s="15" t="n"/>
@@ -5784,7 +5784,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Para una operación de ejecución prolongada en un clúster de AKS, considere la finalización de eventos</t>
+          <t>Si es necesario, considere la posibilidad de usar Azure Dedicated Hosts para nodos de AKS</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -5822,14 +5822,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
+          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -5845,18 +5845,18 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidad</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Si es necesario, considere la posibilidad de usar Azure Dedicated Hosts para nodos de AKS</t>
+          <t>Usar discos de sistema operativo efímeros</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5867,7 +5867,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
+          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -5875,7 +5875,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Usar discos de sistema operativo efímeros</t>
+          <t>En el caso de los discos no efímeros, use IOPS altas y discos de sistema operativo más grandes para los nodos cuando ejecute muchos pods o nodos, ya que requiere un alto rendimiento para ejecutar varios pods y generará registros enormes con umbrales de rotación de registros de AKS predeterminados</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -5913,7 +5913,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -5921,7 +5921,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -5942,13 +5942,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>En el caso de los discos no efímeros, use IOPS altas y discos de sistema operativo más grandes para los nodos cuando ejecute muchos pods o nodos, ya que requiere un alto rendimiento para ejecutar varios pods y generará registros enormes con umbrales de rotación de registros de AKS predeterminados</t>
+          <t>Para la opción de almacenamiento de hiperrendimiento, use discos Ultra en AKS</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5959,7 +5959,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -5967,7 +5967,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -5988,13 +5988,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Para la opción de almacenamiento de hiperrendimiento, use discos Ultra en AKS</t>
+          <t>Evite mantener el estado en el clúster y almacene los datos fuera (AzStorage, AzSQL, Cosmos, etc.)</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6005,14 +6005,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Evite mantener el estado en el clúster y almacene los datos fuera (AzStorage, AzSQL, Cosmos, etc.)</t>
+          <t>Si usa AzFiles Standard, considere AzFiles Premium o ANF por motivos de rendimiento</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6050,14 +6050,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-storage</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Si usa AzFiles Standard, considere AzFiles Premium o ANF por motivos de rendimiento</t>
+          <t>Si usa Azure Disks y AZ, considere la posibilidad de tener grupos de nodos dentro de una zona para el disco LRS con VolumeBindingMode:WaitForFirstConsumer para aprovisionar el almacenamiento en la zona correcta o use el disco ZRS para los grupos de nodos que abarquen varias zonas</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6095,14 +6095,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-storage</t>
+          <t>https://learn.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6111,46 +6111,17 @@
       <c r="P117" s="25" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="21" t="inlineStr">
-        <is>
-          <t>Operaciones</t>
-        </is>
-      </c>
-      <c r="B118" s="21" t="inlineStr">
-        <is>
-          <t>Almacenamiento</t>
-        </is>
-      </c>
-      <c r="C118" s="21" t="inlineStr">
-        <is>
-          <t>Si usa Azure Disks y AZ, considere la posibilidad de tener grupos de nodos dentro de una zona para el disco LRS con VolumeBindingMode:WaitForFirstConsumer para aprovisionar el almacenamiento en la zona correcta o use el disco ZRS para los grupos de nodos que abarquen varias zonas</t>
-        </is>
-      </c>
+      <c r="A118" s="21" t="n"/>
+      <c r="B118" s="21" t="n"/>
+      <c r="C118" s="21" t="n"/>
       <c r="D118" s="21" t="n"/>
-      <c r="E118" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E118" s="21" t="n"/>
       <c r="G118" s="21" t="n"/>
-      <c r="H118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
-        </is>
-      </c>
+      <c r="H118" s="15" t="n"/>
       <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
-      <c r="L118" s="25" t="inlineStr">
-        <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
-        </is>
-      </c>
+      <c r="L118" s="25" t="n"/>
       <c r="M118" s="25" t="n"/>
       <c r="N118" s="25" t="n"/>
       <c r="O118" s="25" t="n"/>
@@ -9042,7 +9013,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F119" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F118" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/aks_checklist.es.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.es.xlsx
@@ -2123,7 +2123,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Definir los requisitos de separación de aplicaciones (espacio de nombres/grupo de nodos/clúster)</t>
+          <t>Definición de los requisitos de separación de aplicaciones (espacio de nombres/grupo de nodos/clúster)</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Para POD Identity Access Management, use Azure AD Workload Identity (versión preliminar)</t>
+          <t>Para la administración de acceso a identidades de pods, use Azure AD Workload Identity (versión preliminar)</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -5921,7 +5921,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>

--- a/spreadsheet/macrofree/aks_checklist.es.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.es.xlsx
@@ -2993,7 +2993,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>No use el complemento de enrutamiento de aplicaciones de AKS</t>
+          <t>No use el complemento de enrutamiento HTTP de AKS, use en su lugar la entrada NGINX administrada con el complemento de enrutamiento de aplicaciones.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
